--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>DisplayCategory</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Image</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>MajorYear</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>LinkedIn</t>
         </is>
@@ -473,15 +478,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>President</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>alice.jpg</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>CS Senior</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://linkedin.com/in/alicejohnson</t>
         </is>
@@ -500,15 +510,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Vice President</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>bob.jpg</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>EE Junior</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://linkedin.com/in/bobsmith</t>
         </is>
@@ -527,15 +542,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>MAP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>carol.jpg</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>ME Sophomore</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://linkedin.com/in/carolwhite</t>
         </is>
@@ -554,15 +574,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>GestARM</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>dave.jpg</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>CE Freshman</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://linkedin.com/in/davebrown</t>
         </is>
@@ -581,15 +606,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>GestARM</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>eve.jpg</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>CS Senior</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://linkedin.com/in/eveblack</t>
         </is>
@@ -608,15 +638,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>PurduDraw</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>frank.jpg</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>EE Junior</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://linkedin.com/in/frankgreen</t>
         </is>
